--- a/xtehr/mappable/DeviceUse.xlsx
+++ b/xtehr/mappable/DeviceUse.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C.25 - EHDS refined base model for Device Use</t>
+          <t>EHDS refined base model for Device Use</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C.25.1 - Identifier</t>
+          <t>An identifier for this statement.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,64 +535,60 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.status</t>
+          <t>EHDSDeviceUse.subject</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.status</t>
+          <t>EHDSDeviceUse.subject</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C.25.2 - Status</t>
+          <t>The patient using the device.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Current status of the Device Usage.</t>
+          <t>The patient using the device.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CodeableConcept</t>
+          <t>EHDSPatient</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0..1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{'strength': 'preferred', 'description': 'HL7 device-statement-status'}</t>
-        </is>
-      </c>
+          <t>1..1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.implantDate</t>
+          <t>EHDSDeviceUse.status</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.implantDate</t>
+          <t>EHDSDeviceUse.status</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C.25.3 - Implant date</t>
+          <t>Current status of the Device Usage.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Date when procedure was performed.</t>
+          <t>Current status of the Device Usage.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>CodeableConcept</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -600,27 +596,31 @@
           <t>0..1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'strength': 'preferred', 'description': 'HL7 device-statement-status'}</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.endDate</t>
+          <t>EHDSDeviceUse.implantDate</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.endDate</t>
+          <t>EHDSDeviceUse.implantDate</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C.25.4 - End date</t>
+          <t>Date when procedure was performed.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Date when the device was explanted from the patient or the external device was no longer in use; likewise when the device is planned to be explanted.</t>
+          <t>Date when procedure was performed.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -638,32 +638,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.device</t>
+          <t>EHDSDeviceUse.endDate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.device</t>
+          <t>EHDSDeviceUse.endDate</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C.25.5 - Device</t>
+          <t>Date when the device was explanted from the patient or the external device was no longer in use; likewise when the device is planned to be explanted.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The details of the device used.</t>
+          <t>Date when the device was explanted from the patient or the external device was no longer in use; likewise when the device is planned to be explanted.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>dateTime</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1..1</t>
+          <t>0..1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -671,27 +671,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.subject</t>
+          <t>EHDSDeviceUse.device</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.subject</t>
+          <t>EHDSDeviceUse.device</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C.25.6 - Subject</t>
+          <t>The details of the device used.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The patient using the device.</t>
+          <t>The details of the device used.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>EHDSDevice</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C.25.7 - Body site</t>
+          <t>Anatomical location of the device. May include laterality.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -747,17 +747,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C.25.8 - Note</t>
+          <t>Note about the device statement that were not represented at all or sufficiently in one of the attributes provided in a class. These may include for example a comment, an instruction, or a note associated with the statement.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Details about the device statement that were not represented at all or sufficiently in one of the attributes provided in a class. These may include for example a comment, an instruction, or a note associated with the statement.</t>
+          <t>Note about the device statement that were not represented at all or sufficiently in one of the attributes provided in a class. These may include for example a comment, an instruction, or a note associated with the statement.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Narrative</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C.25.9 - Recorded</t>
+          <t>Date and time at which the statement was made/recorded.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -803,17 +803,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.source</t>
+          <t>EHDSDeviceUse.source[x]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EHDSDeviceUse.source</t>
+          <t>EHDSDeviceUse.source[x]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C.25.10 - Source</t>
+          <t>Who reported the device was being used by the patient.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>EHDSPatient</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -832,6 +832,39 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EHDSDeviceUse.reason[x]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EHDSDeviceUse.reason[x]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Reason or justification for the use of the device.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reason or justification for the use of the device.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>EHDSCondition</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0..*</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
